--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10930" windowHeight="9840"/>
+    <workbookView windowWidth="14750" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>TTTT</t>
   </si>
@@ -44,7 +44,40 @@
     <t>描述</t>
   </si>
   <si>
-    <t>数值0</t>
+    <t>行为效果_0</t>
+  </si>
+  <si>
+    <t>行为范围_0</t>
+  </si>
+  <si>
+    <t>行为数值0</t>
+  </si>
+  <si>
+    <t>行为次数0</t>
+  </si>
+  <si>
+    <t>行为效果_1</t>
+  </si>
+  <si>
+    <t>行为范围_1</t>
+  </si>
+  <si>
+    <t>行为数值1</t>
+  </si>
+  <si>
+    <t>行为次数1</t>
+  </si>
+  <si>
+    <t>行为效果_2</t>
+  </si>
+  <si>
+    <t>行为范围_2</t>
+  </si>
+  <si>
+    <t>行为数值2</t>
+  </si>
+  <si>
+    <t>行为次数2</t>
   </si>
   <si>
     <t>id</t>
@@ -56,7 +89,40 @@
     <t>desc</t>
   </si>
   <si>
-    <t>value_0</t>
+    <t>actionEffect_0</t>
+  </si>
+  <si>
+    <t>actionRange_0</t>
+  </si>
+  <si>
+    <t>actionValue_0</t>
+  </si>
+  <si>
+    <t>actionTime_0</t>
+  </si>
+  <si>
+    <t>actionEffect_1</t>
+  </si>
+  <si>
+    <t>actionRange_1</t>
+  </si>
+  <si>
+    <t>actionValue_1</t>
+  </si>
+  <si>
+    <t>actionTime_1</t>
+  </si>
+  <si>
+    <t>actionEffect_2</t>
+  </si>
+  <si>
+    <t>actionRange_2</t>
+  </si>
+  <si>
+    <t>actionValue_2</t>
+  </si>
+  <si>
+    <t>actionTime_2</t>
   </si>
   <si>
     <t>int</t>
@@ -65,22 +131,43 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum|BasicActionEffect</t>
+  </si>
+  <si>
+    <t>enum|BasicActionRange</t>
+  </si>
+  <si>
     <t>打击</t>
   </si>
   <si>
     <t>对敌人造成{0}点伤害</t>
   </si>
   <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
     <t>防御</t>
   </si>
   <si>
     <t>给自己上{0}点护盾值</t>
   </si>
   <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
     <t>治疗</t>
   </si>
   <si>
     <t>对自己治疗{0}点生命</t>
+  </si>
+  <si>
+    <t>Heal</t>
   </si>
 </sst>
 </file>
@@ -246,12 +333,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -572,7 +665,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,16 +689,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -614,89 +707,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +797,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1015,19 +1112,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="22.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="23.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="21.8181818181818" customWidth="1"/>
+    <col min="6" max="7" width="15.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="25.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="24.2727272727273" customWidth="1"/>
+    <col min="10" max="11" width="14.7272727272727" customWidth="1"/>
+    <col min="12" max="12" width="26.9090909090909" customWidth="1"/>
+    <col min="13" max="13" width="23.1818181818182" customWidth="1"/>
+    <col min="14" max="14" width="15.6363636363636" customWidth="1"/>
+    <col min="15" max="15" width="15.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,8 +1142,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1046,66 +1155,204 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14750" windowHeight="9840"/>
+    <workbookView windowWidth="16070" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -1114,7 +1114,7 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Card.xlsx
+++ b/Excel/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16070" windowHeight="13060"/>
+    <workbookView windowWidth="16070" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>TTTT</t>
   </si>
@@ -41,6 +41,9 @@
     <t>名称</t>
   </si>
   <si>
+    <t>对敌人用</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>targetEnemy</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
@@ -129,6 +135,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>enum|BasicActionEffect</t>
@@ -1112,29 +1121,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="22.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="21.8181818181818" customWidth="1"/>
-    <col min="6" max="7" width="15.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="25.2727272727273" customWidth="1"/>
-    <col min="9" max="9" width="24.2727272727273" customWidth="1"/>
-    <col min="10" max="11" width="14.7272727272727" customWidth="1"/>
-    <col min="12" max="12" width="26.9090909090909" customWidth="1"/>
-    <col min="13" max="13" width="23.1818181818182" customWidth="1"/>
-    <col min="14" max="14" width="15.6363636363636" customWidth="1"/>
-    <col min="15" max="15" width="15.3636363636364" customWidth="1"/>
+    <col min="2" max="3" width="22.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="23.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="21.8181818181818" customWidth="1"/>
+    <col min="7" max="8" width="15.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="25.2727272727273" customWidth="1"/>
+    <col min="10" max="10" width="24.2727272727273" customWidth="1"/>
+    <col min="11" max="12" width="14.7272727272727" customWidth="1"/>
+    <col min="13" max="13" width="26.9090909090909" customWidth="1"/>
+    <col min="14" max="14" width="23.1818181818182" customWidth="1"/>
+    <col min="15" max="15" width="15.6363636363636" customWidth="1"/>
+    <col min="16" max="16" width="15.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,8 +1153,9 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1155,203 +1165,221 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="P2" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
         <v>26</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
       <c r="M3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="O3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
       <c r="M4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
